--- a/data/Lesson4_solution.xlsx
+++ b/data/Lesson4_solution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosai\OET_coding\flex_training\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gosai\OET_coding\flex_training_2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF318513-30CF-430A-983B-221F52206842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB7289-0D0D-4654-9972-1B5DFF84AECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="288" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{D4116799-E558-401A-BE9F-7233D2D00AEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D4116799-E558-401A-BE9F-7233D2D00AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="snapshots" sheetId="56" r:id="rId1"/>
@@ -1638,8 +1638,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.44140625" defaultRowHeight="14.4"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="D3">
         <f ca="1">ROUND(RAND()*15,2)</f>
-        <v>2.71</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D4">
         <f ca="1">ROUND(RAND()*12,2)</f>
-        <v>5.6</v>
+        <v>2.59</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="D5">
         <f ca="1">ROUND(RAND()*20,2)</f>
-        <v>6.7</v>
+        <v>9.9</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D7">
         <f t="shared" ref="D7" ca="1" si="0">ROUND(RAND()*3,2)</f>
-        <v>1.23</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D8">
         <f t="shared" ref="D8" ca="1" si="1">ROUND(RAND()*12,2)</f>
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9" ca="1" si="2">ROUND(RAND()*20,2)</f>
-        <v>5.55</v>
+        <v>5.84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="D12">
         <f t="shared" ref="D12" ca="1" si="3">ROUND(RAND()*10,2)</f>
-        <v>7.18</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13" ca="1" si="4">ROUND(RAND()*15,2)</f>
-        <v>9.1999999999999993</v>
+        <v>7.65</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="D14">
         <f t="shared" ref="D14" ca="1" si="5">ROUND(RAND()*12,2)</f>
-        <v>10.48</v>
+        <v>7.79</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D15">
         <f t="shared" ref="D15" ca="1" si="6">ROUND(RAND()*20,2)</f>
-        <v>16.57</v>
+        <v>12.27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="D18">
         <f t="shared" ref="D18" ca="1" si="7">ROUND(RAND()*10,2)</f>
-        <v>6.23</v>
+        <v>2.83</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="D19">
         <f t="shared" ref="D19" ca="1" si="8">ROUND(RAND()*3,2)</f>
-        <v>0.28999999999999998</v>
+        <v>2.58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D20">
         <f t="shared" ref="D20" ca="1" si="9">ROUND(RAND()*15,2)</f>
-        <v>14.6</v>
+        <v>5.92</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D25">
         <f t="shared" ref="D25" ca="1" si="10">ROUND(RAND()*10,2)</f>
-        <v>1.95</v>
+        <v>8.61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="D26">
         <f t="shared" ref="D26" ca="1" si="11">ROUND(RAND()*3,2)</f>
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D27">
         <f t="shared" ref="D27" ca="1" si="12">ROUND(RAND()*15,2)</f>
-        <v>0.45</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="D28">
         <f t="shared" ref="D28" ca="1" si="13">ROUND(RAND()*20,2)</f>
-        <v>0.3</v>
+        <v>1.27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D31">
         <f t="shared" ref="D31" ca="1" si="14">ROUND(RAND()*10,2)</f>
-        <v>0.67</v>
+        <v>1.03</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="D32">
         <f t="shared" ref="D32" ca="1" si="15">ROUND(RAND()*3,2)</f>
-        <v>1.34</v>
+        <v>0.35</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="D33">
         <f t="shared" ref="D33" ca="1" si="16">ROUND(RAND()*12,2)</f>
-        <v>6.31</v>
+        <v>8.6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D34">
         <f t="shared" ref="D34" ca="1" si="17">ROUND(RAND()*20,2)</f>
-        <v>5.95</v>
+        <v>2.7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="D38">
         <f t="shared" ref="D38" ca="1" si="18">ROUND(RAND()*3,2)</f>
-        <v>0.37</v>
+        <v>1.61</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="D39">
         <f t="shared" ref="D39" ca="1" si="19">ROUND(RAND()*12,2)</f>
-        <v>4.76</v>
+        <v>5.17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="D40">
         <f t="shared" ref="D40" ca="1" si="20">ROUND(RAND()*20,2)</f>
-        <v>1.78</v>
+        <v>12.18</v>
       </c>
       <c r="E40">
         <v>0</v>
